--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.6283</v>
+        <v>-12.2248</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.88039999999999</v>
+        <v>-21.8663</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.458699999999994</v>
+        <v>-7.347699999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4805</v>
+        <v>16.52210000000001</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.336099999999999</v>
+        <v>-7.410000000000005</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.7042</v>
+        <v>-21.7693</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3273</v>
+        <v>16.46660000000001</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.20939999999998</v>
+        <v>-19.94889999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.40879999999997</v>
+        <v>-20.47949999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,24 +845,24 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.254200000000001</v>
+        <v>-7.519000000000003</v>
       </c>
       <c r="E24" t="n">
-        <v>17.09940000000002</v>
+        <v>17.26170000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.23219999999998</v>
+        <v>-22.00249999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.5936</v>
+        <v>-13.1541</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.761599999999994</v>
+        <v>-8.682099999999997</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.19229999999997</v>
+        <v>-21.17679999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.7454</v>
+        <v>-12.4281</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.86809999999998</v>
+        <v>-20.95029999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.39369999999999</v>
+        <v>15.43519999999999</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.2011</v>
+        <v>-12.8414</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.2314</v>
+        <v>16.35950000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.84330000000003</v>
+        <v>17.03130000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.07590000000001</v>
+        <v>-12.58070000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.5846</v>
+        <v>16.52650000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.4426</v>
+        <v>-11.7187</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.080900000000002</v>
+        <v>-8.065600000000003</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5622</v>
+        <v>-11.6283</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.081</v>
+        <v>-11.1229</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.1126</v>
+        <v>-22.28280000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.070399999999996</v>
+        <v>-6.3003</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.6386</v>
+        <v>-13.8203</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.36930000000001</v>
+        <v>16.46580000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-11.3756</v>
+        <v>-11.7407</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.96290000000001</v>
+        <v>-21.84230000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.8936</v>
+        <v>-13.22709999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-9.0085</v>
+        <v>-8.6881</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.6412</v>
+        <v>16.58280000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2108</v>
+        <v>-22.2986</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.727599999999994</v>
+        <v>-7.711299999999997</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.9575</v>
+        <v>-7.975300000000003</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.86090000000002</v>
+        <v>17.00280000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5326</v>
+        <v>-21.5737</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.329499999999996</v>
+        <v>-8.124600000000004</v>
       </c>
       <c r="E70" t="n">
-        <v>16.8166</v>
+        <v>16.7244</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.5392</v>
+        <v>-12.7918</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.7065</v>
+        <v>16.56680000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.65180000000002</v>
+        <v>-20.3913</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9844</v>
+        <v>-21.86719999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.6586</v>
+        <v>16.59950000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1899,10 +1899,10 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.896900000000004</v>
+        <v>-8.811000000000003</v>
       </c>
       <c r="E86" t="n">
-        <v>16.1491</v>
+        <v>16.11570000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.5269</v>
+        <v>-10.4396</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.4991</v>
+        <v>-12.5371</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.31800000000002</v>
+        <v>-21.37360000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.68099999999999</v>
+        <v>-10.6222</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.97019999999999</v>
+        <v>-21.01389999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.66929999999999</v>
+        <v>15.68079999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.94620000000001</v>
+        <v>17.00100000000002</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.995299999999995</v>
+        <v>-9.056299999999995</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.526899999999998</v>
+        <v>-8.600599999999996</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.724699999999996</v>
+        <v>-7.710699999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
